--- a/data/IMPACTPricesJan2015.xlsx
+++ b/data/IMPACTPricesJan2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9740"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -183,13 +183,13 @@
     <t>cothr</t>
   </si>
   <si>
-    <t>commodity</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
     <t>Val</t>
+  </si>
+  <si>
+    <t>IMPACT_code</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,21 +509,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
